--- a/artfynd/Gåsselmyran artfynd.xlsx
+++ b/artfynd/Gåsselmyran artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY57"/>
+  <dimension ref="A1:AY69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,45 +680,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104220660</v>
+        <v>104230290</v>
       </c>
       <c r="B2" t="n">
-        <v>90283</v>
+        <v>92535</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1962</v>
+        <v>4364</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Gåsselliden, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>682614</v>
+        <v>682592</v>
       </c>
       <c r="R2" t="n">
-        <v>7101484</v>
+        <v>7101488</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -765,15 +765,19 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -874,45 +878,45 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104230290</v>
+        <v>104220660</v>
       </c>
       <c r="B4" t="n">
-        <v>92535</v>
+        <v>90283</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>1962</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Gåsselåsen, Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>682592</v>
+        <v>682614</v>
       </c>
       <c r="R4" t="n">
-        <v>7101488</v>
+        <v>7101484</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -959,19 +963,15 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1072,10 +1072,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111835730</v>
+        <v>126839045</v>
       </c>
       <c r="B6" t="n">
-        <v>92527</v>
+        <v>78647</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,37 +1083,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4361</v>
+        <v>353</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Gåsselliden, Ång</t>
+          <t>Gåsselmyran, Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>682478</v>
+        <v>683033</v>
       </c>
       <c r="R6" t="n">
-        <v>7101357</v>
+        <v>7101459</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1137,12 +1137,12 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1157,64 +1157,67 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Vilhelm Kroon</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Vilhelm Kroon</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>SCA Skog Naturvärdesinventering</t>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>104220705</v>
+        <v>126840197</v>
       </c>
       <c r="B7" t="n">
-        <v>92535</v>
+        <v>78738</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4364</v>
+        <v>6446</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Gåsselmyren, Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>682741</v>
+        <v>683074</v>
       </c>
       <c r="R7" t="n">
-        <v>7101486</v>
+        <v>7101349</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1238,12 +1241,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1252,28 +1255,33 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Beke Regelin</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY7" t="inlineStr"/>
+          <t>Beke Regelin, Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse, Peter Andersson</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104230288</v>
+        <v>111835730</v>
       </c>
       <c r="B8" t="n">
-        <v>78980</v>
+        <v>92527</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1281,34 +1289,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>4361</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Gåsselliden, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>682650</v>
+        <v>682478</v>
       </c>
       <c r="R8" t="n">
-        <v>7101462</v>
+        <v>7101357</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1335,12 +1343,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1351,67 +1359,52 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+          <t>SCA Skog Naturvärdesinventering</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104220714</v>
+        <v>104220705</v>
       </c>
       <c r="B9" t="n">
-        <v>78386</v>
+        <v>92535</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6437</v>
+        <v>4364</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1421,10 +1414,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>682901</v>
+        <v>682741</v>
       </c>
       <c r="R9" t="n">
-        <v>7101266</v>
+        <v>7101486</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1483,10 +1476,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>104220658</v>
+        <v>104230288</v>
       </c>
       <c r="B10" t="n">
-        <v>90283</v>
+        <v>78980</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1494,34 +1487,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1962</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Gåsselliden, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>682846</v>
+        <v>682650</v>
       </c>
       <c r="R10" t="n">
-        <v>7101291</v>
+        <v>7101462</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1565,25 +1558,44 @@
       <c r="AG10" t="b">
         <v>0</v>
       </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY10" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>16846942</v>
+        <v>104220714</v>
       </c>
       <c r="B11" t="n">
-        <v>78738</v>
+        <v>78386</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1591,34 +1603,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6446</v>
+        <v>6437</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Gåsselmyran, Ång</t>
+          <t>Gåsselåsen, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>683144</v>
+        <v>682901</v>
       </c>
       <c r="R11" t="n">
-        <v>7101221</v>
+        <v>7101266</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1645,12 +1657,12 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>2013-06-30</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>2013-06-30</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1661,40 +1673,26 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>tallskog</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>brandhögstubbe tall</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Niina Sallmén</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Niina Sallmén, sofia nordin</t>
-        </is>
-      </c>
-      <c r="AY11" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>104230293</v>
+        <v>104220658</v>
       </c>
       <c r="B12" t="n">
-        <v>78738</v>
+        <v>90283</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1702,34 +1700,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6446</v>
+        <v>1962</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Gåsselåsen, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>683027</v>
+        <v>682846</v>
       </c>
       <c r="R12" t="n">
-        <v>7101473</v>
+        <v>7101291</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1773,79 +1771,60 @@
       <c r="AG12" t="b">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY12" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>104220706</v>
+        <v>126835887</v>
       </c>
       <c r="B13" t="n">
-        <v>92535</v>
+        <v>91406</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>1503</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Norrholmsjö, Ång</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>683198</v>
+        <v>683085</v>
       </c>
       <c r="R13" t="n">
-        <v>7101382</v>
+        <v>7101428</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1872,12 +1851,12 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1888,26 +1867,41 @@
       </c>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>104220661</v>
+        <v>16846942</v>
       </c>
       <c r="B14" t="n">
-        <v>90283</v>
+        <v>78738</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1915,34 +1909,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1962</v>
+        <v>6446</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Gåsselmyran, Ång</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>682990</v>
+        <v>683144</v>
       </c>
       <c r="R14" t="n">
-        <v>7101559</v>
+        <v>7101221</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1969,12 +1963,12 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2013-06-30</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2013-06-30</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -1985,61 +1979,75 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>tallskog</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>brandhögstubbe tall</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Niina Sallmén</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY14" t="inlineStr"/>
+          <t>Niina Sallmén, sofia nordin</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>104220694</v>
+        <v>104230293</v>
       </c>
       <c r="B15" t="n">
-        <v>91406</v>
+        <v>78738</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1503</v>
+        <v>6446</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Gåsselliden, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>683606</v>
+        <v>683027</v>
       </c>
       <c r="R15" t="n">
-        <v>7101466</v>
+        <v>7101473</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2083,47 +2091,66 @@
       <c r="AG15" t="b">
         <v>0</v>
       </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY15" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>104220664</v>
+        <v>104220706</v>
       </c>
       <c r="B16" t="n">
-        <v>90283</v>
+        <v>92535</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1962</v>
+        <v>4364</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2133,10 +2160,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>683133</v>
+        <v>683198</v>
       </c>
       <c r="R16" t="n">
-        <v>7101365</v>
+        <v>7101382</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2195,45 +2222,45 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>104230294</v>
+        <v>104220661</v>
       </c>
       <c r="B17" t="n">
-        <v>92519</v>
+        <v>90283</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6055</v>
+        <v>1962</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spadskinn</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Stereopsis vitellina</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(S.Lundell) D.A.Reid</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Gåsselåsen, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>683077</v>
+        <v>682990</v>
       </c>
       <c r="R17" t="n">
-        <v>7101489</v>
+        <v>7101559</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2280,26 +2307,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY17" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111835731</v>
+        <v>126840198</v>
       </c>
       <c r="B18" t="n">
-        <v>92571</v>
+        <v>78980</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2307,37 +2330,40 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5966</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Gåsselliden, Ång</t>
+          <t>Gåsselmyren, Ång</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>682478</v>
+        <v>683072</v>
       </c>
       <c r="R18" t="n">
-        <v>7101357</v>
+        <v>7101302</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2361,12 +2387,17 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Många på tallstammarna</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2375,67 +2406,68 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Beke Regelin</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Beke Regelin, Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse, Peter Andersson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>SCA Skog Naturvärdesinventering</t>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111835738</v>
+        <v>104220694</v>
       </c>
       <c r="B19" t="n">
-        <v>92727</v>
+        <v>91406</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2079</v>
+        <v>1503</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Gåsselliden, Ång</t>
+          <t>Gåsselåsen, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>682489</v>
+        <v>683606</v>
       </c>
       <c r="R19" t="n">
-        <v>7101344</v>
+        <v>7101466</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2462,12 +2494,12 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2482,26 +2514,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
-        </is>
-      </c>
-      <c r="AY19" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111835733</v>
+        <v>104220664</v>
       </c>
       <c r="B20" t="n">
-        <v>92551</v>
+        <v>90283</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2509,34 +2537,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2059</v>
+        <v>1962</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Gåsselliden, Ång</t>
+          <t>Gåsselåsen, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>682486</v>
+        <v>683133</v>
       </c>
       <c r="R20" t="n">
-        <v>7101355</v>
+        <v>7101365</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2563,12 +2591,12 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2583,61 +2611,57 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
-        </is>
-      </c>
-      <c r="AY20" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111835732</v>
+        <v>104230294</v>
       </c>
       <c r="B21" t="n">
-        <v>92529</v>
+        <v>92519</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4362</v>
+        <v>6055</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Spadskinn</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Stereopsis vitellina</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(S.Lundell) D.A.Reid</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Gåsselliden, Ång</t>
+          <t>Gåsselliden, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>682486</v>
+        <v>683077</v>
       </c>
       <c r="R21" t="n">
-        <v>7101355</v>
+        <v>7101489</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2664,12 +2688,12 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2684,26 +2708,26 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Carl Jansson, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr">
         <is>
-          <t>SCA Skog Naturvärdesinventering</t>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>104230300</v>
+        <v>111835731</v>
       </c>
       <c r="B22" t="n">
-        <v>90283</v>
+        <v>92571</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2711,34 +2735,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1962</v>
+        <v>5966</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Gåsselliden, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>683099</v>
+        <v>682478</v>
       </c>
       <c r="R22" t="n">
-        <v>7101481</v>
+        <v>7101357</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2765,12 +2789,12 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2781,45 +2805,30 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
         <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+          <t>SCA Skog Naturvärdesinventering</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>104230302</v>
+        <v>111835738</v>
       </c>
       <c r="B23" t="n">
-        <v>90283</v>
+        <v>92727</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2827,34 +2836,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1962</v>
+        <v>2079</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Gåsselliden, Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>683132</v>
+        <v>682489</v>
       </c>
       <c r="R23" t="n">
-        <v>7101470</v>
+        <v>7101344</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2881,12 +2890,12 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -2897,80 +2906,65 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr">
         <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+          <t>SCA Skog Naturvärdesinventering</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>104230292</v>
+        <v>111835733</v>
       </c>
       <c r="B24" t="n">
-        <v>92539</v>
+        <v>92551</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4365</v>
+        <v>2059</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Gåsselliden, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>682837</v>
+        <v>682486</v>
       </c>
       <c r="R24" t="n">
-        <v>7101509</v>
+        <v>7101355</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -2997,12 +2991,12 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3017,26 +3011,26 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr">
         <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+          <t>SCA Skog Naturvärdesinventering</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111835739</v>
+        <v>111835732</v>
       </c>
       <c r="B25" t="n">
-        <v>92727</v>
+        <v>92529</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3044,21 +3038,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2079</v>
+        <v>4362</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3068,10 +3062,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>682686</v>
+        <v>682486</v>
       </c>
       <c r="R25" t="n">
-        <v>7101482</v>
+        <v>7101355</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3134,7 +3128,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>104230295</v>
+        <v>104230300</v>
       </c>
       <c r="B26" t="n">
         <v>90283</v>
@@ -3169,10 +3163,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>683077</v>
+        <v>683099</v>
       </c>
       <c r="R26" t="n">
-        <v>7101491</v>
+        <v>7101481</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3250,45 +3244,45 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>104230272</v>
+        <v>104230302</v>
       </c>
       <c r="B27" t="n">
-        <v>96487</v>
+        <v>90283</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2869</v>
+        <v>1962</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Holmsjöbäcken, Bjurholm, Ång</t>
+          <t>Gåsselliden, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>684000</v>
+        <v>683132</v>
       </c>
       <c r="R27" t="n">
-        <v>7101275</v>
+        <v>7101470</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3331,6 +3325,21 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3351,10 +3360,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>104230273</v>
+        <v>104230292</v>
       </c>
       <c r="B28" t="n">
-        <v>92519</v>
+        <v>92539</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3362,34 +3371,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6055</v>
+        <v>4365</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Spadskinn</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Stereopsis vitellina</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(S.Lundell) D.A.Reid</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Holmsjöbäcken, Bjurholm, Ång</t>
+          <t>Gåsselliden, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>684028</v>
+        <v>682837</v>
       </c>
       <c r="R28" t="n">
-        <v>7101478</v>
+        <v>7101509</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3452,10 +3461,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>104220695</v>
+        <v>126840195</v>
       </c>
       <c r="B29" t="n">
-        <v>91263</v>
+        <v>79569</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3463,37 +3472,40 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5432</v>
+        <v>229821</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Gåsselmyren, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>683957</v>
+        <v>683074</v>
       </c>
       <c r="R29" t="n">
-        <v>7101162</v>
+        <v>7101349</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3517,12 +3529,12 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3531,28 +3543,33 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Beke Regelin</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY29" t="inlineStr"/>
+          <t>Beke Regelin, Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse, Peter Andersson</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>27860</v>
+        <v>111835739</v>
       </c>
       <c r="B30" t="n">
-        <v>56476</v>
+        <v>92727</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3560,39 +3577,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100077</v>
+        <v>2079</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Utter</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lutra lutra</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre spillning</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Holmsjöbäcken, Ång</t>
+          <t>Gåsselliden, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>684081</v>
+        <v>682686</v>
       </c>
       <c r="R30" t="n">
-        <v>7101340</v>
+        <v>7101482</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3619,27 +3631,12 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2007-08-06</t>
-        </is>
-      </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2007-08-06</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Inventerare:Jonatan Borling, Eva-Britt Olofsson. Spillningsinnehåll:fisk o groda, under brofäste</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3654,26 +3651,26 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Jonas F Grahn</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Via Jonas F Grahn</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr">
         <is>
-          <t>Inventering av utter Västerbottens län 2005-2007</t>
+          <t>SCA Skog Naturvärdesinventering</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>104230297</v>
+        <v>104230295</v>
       </c>
       <c r="B31" t="n">
-        <v>92529</v>
+        <v>90283</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3681,21 +3678,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4362</v>
+        <v>1962</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3705,10 +3702,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>683086</v>
+        <v>683077</v>
       </c>
       <c r="R31" t="n">
-        <v>7101479</v>
+        <v>7101491</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3751,6 +3748,21 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -3771,45 +3783,45 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111835740</v>
+        <v>104230272</v>
       </c>
       <c r="B32" t="n">
-        <v>78980</v>
+        <v>96487</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>2869</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Gåsselliden, Ång</t>
+          <t>Holmsjöbäcken, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>682694</v>
+        <v>684000</v>
       </c>
       <c r="R32" t="n">
-        <v>7101498</v>
+        <v>7101275</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3836,12 +3848,12 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3856,61 +3868,61 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Carl Jansson, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr">
         <is>
-          <t>SCA Skog Naturvärdesinventering</t>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>104230286</v>
+        <v>104230273</v>
       </c>
       <c r="B33" t="n">
-        <v>90283</v>
+        <v>92519</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1962</v>
+        <v>6055</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Spadskinn</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Stereopsis vitellina</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(S.Lundell) D.A.Reid</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Holmsjöbäcken, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>682781</v>
+        <v>684028</v>
       </c>
       <c r="R33" t="n">
-        <v>7101323</v>
+        <v>7101478</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3953,21 +3965,6 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -3988,32 +3985,32 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>104220672</v>
+        <v>104220695</v>
       </c>
       <c r="B34" t="n">
-        <v>92519</v>
+        <v>91263</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6055</v>
+        <v>5432</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Spadskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Stereopsis vitellina</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(S.Lundell) D.A.Reid</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4023,10 +4020,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>682988</v>
+        <v>683957</v>
       </c>
       <c r="R34" t="n">
-        <v>7101559</v>
+        <v>7101162</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4085,48 +4082,48 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>104220669</v>
+        <v>126839046</v>
       </c>
       <c r="B35" t="n">
-        <v>91265</v>
+        <v>92535</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5442</v>
+        <v>4364</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Gåsselmyran, Ång</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>682822</v>
+        <v>683036</v>
       </c>
       <c r="R35" t="n">
-        <v>7101504</v>
+        <v>7101516</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4150,12 +4147,12 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4170,22 +4167,26 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Vilhelm Kroon</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY35" t="inlineStr"/>
+          <t>Vilhelm Kroon</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>104220657</v>
+        <v>126840196</v>
       </c>
       <c r="B36" t="n">
-        <v>79569</v>
+        <v>78739</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4193,37 +4194,40 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>229821</v>
+        <v>228912</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Gåsselmyren, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>682900</v>
+        <v>683074</v>
       </c>
       <c r="R36" t="n">
-        <v>7101265</v>
+        <v>7101349</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4247,12 +4251,12 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4261,28 +4265,33 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Beke Regelin</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY36" t="inlineStr"/>
+          <t>Beke Regelin, Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse, Peter Andersson</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111835737</v>
+        <v>27860</v>
       </c>
       <c r="B37" t="n">
-        <v>79569</v>
+        <v>56476</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4290,34 +4299,39 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>229821</v>
+        <v>100077</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Utter</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Lutra lutra</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>äldre spillning</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Gåsselliden, Ång</t>
+          <t>Holmsjöbäcken, Ång</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>682659</v>
+        <v>684081</v>
       </c>
       <c r="R37" t="n">
-        <v>7101502</v>
+        <v>7101340</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4344,12 +4358,27 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2007-08-06</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2007-08-06</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Inventerare:Jonatan Borling, Eva-Britt Olofsson. Spillningsinnehåll:fisk o groda, under brofäste</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4364,26 +4393,26 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Jonas F Grahn</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Via Jonas F Grahn</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr">
         <is>
-          <t>SCA Skog Naturvärdesinventering</t>
+          <t>Inventering av utter Västerbottens län 2005-2007</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>55564612</v>
+        <v>104230297</v>
       </c>
       <c r="B38" t="n">
-        <v>91263</v>
+        <v>92529</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4391,34 +4420,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5432</v>
+        <v>4362</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Djupbäcken 1, Ång</t>
+          <t>Gåsselliden, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>683999</v>
+        <v>683086</v>
       </c>
       <c r="R38" t="n">
-        <v>7101251</v>
+        <v>7101479</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4445,17 +4474,12 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2015-06-25</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2015-06-25</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Lite för liten bäck, ont om bra ved</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4470,26 +4494,26 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Carl Jansson, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr">
         <is>
-          <t>Skapanior Eftersök</t>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>104220711</v>
+        <v>111835740</v>
       </c>
       <c r="B39" t="n">
-        <v>77929</v>
+        <v>78980</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4497,34 +4521,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6487</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Gåsselliden, Ång</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>684056</v>
+        <v>682694</v>
       </c>
       <c r="R39" t="n">
-        <v>7101315</v>
+        <v>7101498</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4551,12 +4575,12 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4571,19 +4595,23 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY39" t="inlineStr"/>
+          <t>Ulrika Westling</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>104230296</v>
+        <v>104230286</v>
       </c>
       <c r="B40" t="n">
         <v>90283</v>
@@ -4618,10 +4646,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>683082</v>
+        <v>682781</v>
       </c>
       <c r="R40" t="n">
-        <v>7101488</v>
+        <v>7101323</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4699,10 +4727,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>104220670</v>
+        <v>104220672</v>
       </c>
       <c r="B41" t="n">
-        <v>92565</v>
+        <v>92519</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4710,21 +4738,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>232140</v>
+        <v>6055</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Spadskinn</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Stereopsis vitellina</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
+          <t>(S.Lundell) D.A.Reid</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4734,10 +4762,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>682846</v>
+        <v>682988</v>
       </c>
       <c r="R41" t="n">
-        <v>7101291</v>
+        <v>7101559</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4796,32 +4824,32 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>104220701</v>
+        <v>104220669</v>
       </c>
       <c r="B42" t="n">
-        <v>92535</v>
+        <v>91265</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4364</v>
+        <v>5442</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -4831,10 +4859,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>682908</v>
+        <v>682822</v>
       </c>
       <c r="R42" t="n">
-        <v>7101264</v>
+        <v>7101504</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -4893,10 +4921,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>104230298</v>
+        <v>126840194</v>
       </c>
       <c r="B43" t="n">
-        <v>92571</v>
+        <v>79598</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4904,37 +4932,40 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5966</v>
+        <v>6453</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Gåsselmyren, Ång</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>683086</v>
+        <v>683075</v>
       </c>
       <c r="R43" t="n">
-        <v>7101478</v>
+        <v>7101350</v>
       </c>
       <c r="S43" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -4958,12 +4989,12 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -4972,32 +5003,33 @@
       <c r="AE43" t="b">
         <v>0</v>
       </c>
+      <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="b">
         <v>0</v>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Beke Regelin</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
+          <t>Beke Regelin, Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse, Peter Andersson</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr">
         <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>104220663</v>
+        <v>104220657</v>
       </c>
       <c r="B44" t="n">
-        <v>90283</v>
+        <v>79569</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5005,21 +5037,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1962</v>
+        <v>229821</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5029,10 +5061,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>683248</v>
+        <v>682900</v>
       </c>
       <c r="R44" t="n">
-        <v>7101390</v>
+        <v>7101265</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5091,45 +5123,45 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>104220702</v>
+        <v>111835737</v>
       </c>
       <c r="B45" t="n">
-        <v>92535</v>
+        <v>79569</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>4364</v>
+        <v>229821</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Gåsselliden, Ång</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>682861</v>
+        <v>682659</v>
       </c>
       <c r="R45" t="n">
-        <v>7101296</v>
+        <v>7101502</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5156,12 +5188,12 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5176,57 +5208,61 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY45" t="inlineStr"/>
+          <t>Ulrika Westling</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>104230287</v>
+        <v>126835885</v>
       </c>
       <c r="B46" t="n">
-        <v>92565</v>
+        <v>78980</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>232140</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Norrholmsjö, Ång</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>682780</v>
+        <v>683073</v>
       </c>
       <c r="R46" t="n">
-        <v>7101325</v>
+        <v>7101302</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5253,12 +5289,12 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5269,6 +5305,21 @@
       </c>
       <c r="AG46" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK46" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO46" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
@@ -5278,21 +5329,17 @@
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY46" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>104220662</v>
+        <v>126835882</v>
       </c>
       <c r="B47" t="n">
-        <v>90283</v>
+        <v>78647</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5300,34 +5347,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1962</v>
+        <v>353</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Norrholmsjö, Ång</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>683114</v>
+        <v>683072</v>
       </c>
       <c r="R47" t="n">
-        <v>7101481</v>
+        <v>7101304</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5354,12 +5401,12 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5370,61 +5417,76 @@
       </c>
       <c r="AG47" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO47" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>104230284</v>
+        <v>55564612</v>
       </c>
       <c r="B48" t="n">
-        <v>92535</v>
+        <v>91263</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4364</v>
+        <v>5432</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Djupbäcken 1, Ång</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>682854</v>
+        <v>683999</v>
       </c>
       <c r="R48" t="n">
-        <v>7101295</v>
+        <v>7101251</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5451,12 +5513,17 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2015-06-25</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2015-06-25</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>Lite för liten bäck, ont om bra ved</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5471,26 +5538,26 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr">
         <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+          <t>Skapanior Eftersök</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111835736</v>
+        <v>104220711</v>
       </c>
       <c r="B49" t="n">
-        <v>91259</v>
+        <v>77929</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5498,34 +5565,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1204</v>
+        <v>6487</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Gåsselliden, Ång</t>
+          <t>Gåsselåsen, Ång</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>682650</v>
+        <v>684056</v>
       </c>
       <c r="R49" t="n">
-        <v>7101507</v>
+        <v>7101315</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5552,12 +5619,12 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5572,61 +5639,57 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
-        </is>
-      </c>
-      <c r="AY49" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>104220708</v>
+        <v>104230296</v>
       </c>
       <c r="B50" t="n">
-        <v>92535</v>
+        <v>90283</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4364</v>
+        <v>1962</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Gåsselliden, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>683133</v>
+        <v>683082</v>
       </c>
       <c r="R50" t="n">
-        <v>7101366</v>
+        <v>7101488</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5670,60 +5733,79 @@
       <c r="AG50" t="b">
         <v>0</v>
       </c>
+      <c r="AJ50" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK50" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY50" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>104230303</v>
+        <v>104220670</v>
       </c>
       <c r="B51" t="n">
-        <v>78980</v>
+        <v>92565</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>232140</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Niemelä &amp; Kinnunen</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Gåsselåsen, Ång</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>683151</v>
+        <v>682846</v>
       </c>
       <c r="R51" t="n">
-        <v>7101435</v>
+        <v>7101291</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5770,64 +5852,63 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY51" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>104230307</v>
+        <v>126840199</v>
       </c>
       <c r="B52" t="n">
-        <v>92535</v>
+        <v>78647</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4364</v>
+        <v>353</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Gåsselmyren, Ång</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>683121</v>
+        <v>683074</v>
       </c>
       <c r="R52" t="n">
-        <v>7101391</v>
+        <v>7101300</v>
       </c>
       <c r="S52" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T52" t="inlineStr">
         <is>
@@ -5851,12 +5932,17 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>På gammal silverlåga med brandljud och kol på undersidan</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -5865,67 +5951,68 @@
       <c r="AE52" t="b">
         <v>0</v>
       </c>
+      <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="b">
         <v>0</v>
       </c>
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Beke Regelin</t>
         </is>
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
+          <t>Beke Regelin, Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse, Peter Andersson</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr">
         <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>104220673</v>
+        <v>104230287</v>
       </c>
       <c r="B53" t="n">
-        <v>92551</v>
+        <v>92565</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2059</v>
+        <v>232140</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>Niemelä &amp; Kinnunen</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Gåsselliden, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>682597</v>
+        <v>682780</v>
       </c>
       <c r="R53" t="n">
-        <v>7101488</v>
+        <v>7101325</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -5972,57 +6059,61 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY53" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY53" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>104230305</v>
+        <v>104220701</v>
       </c>
       <c r="B54" t="n">
-        <v>90283</v>
+        <v>92535</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1962</v>
+        <v>4364</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Gåsselåsen, Ång</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>683176</v>
+        <v>682908</v>
       </c>
       <c r="R54" t="n">
-        <v>7101420</v>
+        <v>7101264</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6066,44 +6157,25 @@
       <c r="AG54" t="b">
         <v>0</v>
       </c>
-      <c r="AJ54" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK54" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO54" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY54" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>104220715</v>
+        <v>104230298</v>
       </c>
       <c r="B55" t="n">
-        <v>78386</v>
+        <v>92571</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6111,34 +6183,34 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6437</v>
+        <v>5966</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Gåsselliden, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>682747</v>
+        <v>683086</v>
       </c>
       <c r="R55" t="n">
-        <v>7101398</v>
+        <v>7101478</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6185,22 +6257,26 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY55" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>104220712</v>
+        <v>104220663</v>
       </c>
       <c r="B56" t="n">
-        <v>77929</v>
+        <v>90283</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6208,21 +6284,21 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6487</v>
+        <v>1962</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6232,10 +6308,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>682902</v>
+        <v>683248</v>
       </c>
       <c r="R56" t="n">
-        <v>7101266</v>
+        <v>7101390</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6294,32 +6370,32 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>104220704</v>
+        <v>104220662</v>
       </c>
       <c r="B57" t="n">
-        <v>92535</v>
+        <v>90283</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>4364</v>
+        <v>1962</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6329,10 +6405,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>682717</v>
+        <v>683114</v>
       </c>
       <c r="R57" t="n">
-        <v>7101414</v>
+        <v>7101481</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6388,6 +6464,1229 @@
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>104220702</v>
+      </c>
+      <c r="B58" t="n">
+        <v>92535</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Gåsselåsen, Ång</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>682861</v>
+      </c>
+      <c r="R58" t="n">
+        <v>7101296</v>
+      </c>
+      <c r="S58" t="n">
+        <v>10</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>104230284</v>
+      </c>
+      <c r="B59" t="n">
+        <v>92535</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Gåsselliden, Bjurholm, Ång</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>682854</v>
+      </c>
+      <c r="R59" t="n">
+        <v>7101295</v>
+      </c>
+      <c r="S59" t="n">
+        <v>10</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>111835736</v>
+      </c>
+      <c r="B60" t="n">
+        <v>91259</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>1204</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Gränsticka</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Phellopilus nigrolimitatus</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Gåsselliden, Ång</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>682650</v>
+      </c>
+      <c r="R60" t="n">
+        <v>7101507</v>
+      </c>
+      <c r="S60" t="n">
+        <v>10</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>2023-09-01</t>
+        </is>
+      </c>
+      <c r="AD60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr">
+        <is>
+          <t>Ulrika Westling</t>
+        </is>
+      </c>
+      <c r="AX60" t="inlineStr">
+        <is>
+          <t>Ulrika Westling</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>126835888</v>
+      </c>
+      <c r="B61" t="n">
+        <v>5492</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>101410</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Reliktbock</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Nothorhina muricata</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>(Dalman, 1817)</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Norrholmsjö, Ång</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>682943</v>
+      </c>
+      <c r="R61" t="n">
+        <v>7101457</v>
+      </c>
+      <c r="S61" t="n">
+        <v>10</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="AD61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ61" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK61" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO61" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX61" t="inlineStr">
+        <is>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
+        </is>
+      </c>
+      <c r="AY61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>104220708</v>
+      </c>
+      <c r="B62" t="n">
+        <v>92535</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Gåsselåsen, Ång</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>683133</v>
+      </c>
+      <c r="R62" t="n">
+        <v>7101366</v>
+      </c>
+      <c r="S62" t="n">
+        <v>10</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
+      </c>
+      <c r="AD62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT62" t="inlineStr"/>
+      <c r="AW62" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX62" t="inlineStr">
+        <is>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>104230303</v>
+      </c>
+      <c r="B63" t="n">
+        <v>78980</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Gåsselliden, Bjurholm, Ång</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>683151</v>
+      </c>
+      <c r="R63" t="n">
+        <v>7101435</v>
+      </c>
+      <c r="S63" t="n">
+        <v>10</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
+      </c>
+      <c r="AD63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT63" t="inlineStr"/>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX63" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY63" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>104230307</v>
+      </c>
+      <c r="B64" t="n">
+        <v>92535</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Gåsselliden, Bjurholm, Ång</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>683121</v>
+      </c>
+      <c r="R64" t="n">
+        <v>7101391</v>
+      </c>
+      <c r="S64" t="n">
+        <v>10</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
+      </c>
+      <c r="AD64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AW64" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX64" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY64" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>104220673</v>
+      </c>
+      <c r="B65" t="n">
+        <v>92551</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>2059</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Skrovlig taggsvamp</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Hydnellum scabrosum</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Gåsselåsen, Ång</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>682597</v>
+      </c>
+      <c r="R65" t="n">
+        <v>7101488</v>
+      </c>
+      <c r="S65" t="n">
+        <v>10</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
+      </c>
+      <c r="AD65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT65" t="inlineStr"/>
+      <c r="AW65" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX65" t="inlineStr">
+        <is>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>104230305</v>
+      </c>
+      <c r="B66" t="n">
+        <v>90283</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1962</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Vaddporing</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Anomoporia kamtschatica</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>(Parmasto) Bondartseva</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Gåsselliden, Bjurholm, Ång</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>683176</v>
+      </c>
+      <c r="R66" t="n">
+        <v>7101420</v>
+      </c>
+      <c r="S66" t="n">
+        <v>10</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
+      </c>
+      <c r="AD66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ66" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK66" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO66" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT66" t="inlineStr"/>
+      <c r="AW66" t="inlineStr">
+        <is>
+          <t>Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AX66" t="inlineStr">
+        <is>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY66" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>104220715</v>
+      </c>
+      <c r="B67" t="n">
+        <v>78386</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>6437</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Blanksvart spiklav</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Calicium denigratum</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Gåsselåsen, Ång</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>682747</v>
+      </c>
+      <c r="R67" t="n">
+        <v>7101398</v>
+      </c>
+      <c r="S67" t="n">
+        <v>10</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
+      </c>
+      <c r="AD67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT67" t="inlineStr"/>
+      <c r="AW67" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX67" t="inlineStr">
+        <is>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>104220712</v>
+      </c>
+      <c r="B68" t="n">
+        <v>77929</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>6487</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Blågrå svartspik</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Chaenothecopsis fennica</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>(Laurila) Tibell</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Gåsselåsen, Ång</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>682902</v>
+      </c>
+      <c r="R68" t="n">
+        <v>7101266</v>
+      </c>
+      <c r="S68" t="n">
+        <v>10</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
+      </c>
+      <c r="AD68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT68" t="inlineStr"/>
+      <c r="AW68" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX68" t="inlineStr">
+        <is>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>104220704</v>
+      </c>
+      <c r="B69" t="n">
+        <v>92535</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>4364</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Dropptaggsvamp</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Hydnellum ferrugineum</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Gåsselåsen, Ång</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>682717</v>
+      </c>
+      <c r="R69" t="n">
+        <v>7101414</v>
+      </c>
+      <c r="S69" t="n">
+        <v>10</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Bjurholm</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>2022-10-20</t>
+        </is>
+      </c>
+      <c r="AD69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT69" t="inlineStr"/>
+      <c r="AW69" t="inlineStr">
+        <is>
+          <t>Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AX69" t="inlineStr">
+        <is>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY69" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/Gåsselmyran artfynd.xlsx
+++ b/artfynd/Gåsselmyran artfynd.xlsx
@@ -680,45 +680,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>104230290</v>
+        <v>104220698</v>
       </c>
       <c r="B2" t="n">
-        <v>92535</v>
+        <v>78980</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4364</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Gåsselåsen, Ång</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>682592</v>
+        <v>683803</v>
       </c>
       <c r="R2" t="n">
-        <v>7101488</v>
+        <v>7101645</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -765,26 +765,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104220698</v>
+        <v>104220660</v>
       </c>
       <c r="B3" t="n">
-        <v>78980</v>
+        <v>90283</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,21 +788,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -816,10 +812,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>683803</v>
+        <v>682614</v>
       </c>
       <c r="R3" t="n">
-        <v>7101645</v>
+        <v>7101484</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -878,45 +874,45 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104220660</v>
+        <v>104230290</v>
       </c>
       <c r="B4" t="n">
-        <v>90283</v>
+        <v>92535</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1962</v>
+        <v>4364</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Gåsselliden, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>682614</v>
+        <v>682592</v>
       </c>
       <c r="R4" t="n">
-        <v>7101484</v>
+        <v>7101488</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -963,15 +959,19 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1072,10 +1072,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>126839045</v>
+        <v>126840197</v>
       </c>
       <c r="B6" t="n">
-        <v>78647</v>
+        <v>78738</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,37 +1083,40 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>353</v>
+        <v>6446</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Gåsselmyran, Ång</t>
+          <t>Gåsselmyren, Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>683033</v>
+        <v>683074</v>
       </c>
       <c r="R6" t="n">
-        <v>7101459</v>
+        <v>7101349</v>
       </c>
       <c r="S6" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1151,18 +1154,19 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Vilhelm Kroon</t>
+          <t>Beke Regelin</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Vilhelm Kroon</t>
+          <t>Beke Regelin, Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
@@ -1173,10 +1177,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>126840197</v>
+        <v>126839045</v>
       </c>
       <c r="B7" t="n">
-        <v>78738</v>
+        <v>78647</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1184,40 +1188,37 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6446</v>
+        <v>353</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Gåsselmyren, Ång</t>
+          <t>Gåsselmyran, Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>683074</v>
+        <v>683033</v>
       </c>
       <c r="R7" t="n">
-        <v>7101349</v>
+        <v>7101459</v>
       </c>
       <c r="S7" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1255,19 +1256,18 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Beke Regelin</t>
+          <t>Vilhelm Kroon</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Beke Regelin, Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse, Peter Andersson</t>
+          <t>Vilhelm Kroon</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
@@ -1278,10 +1278,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111835730</v>
+        <v>104230288</v>
       </c>
       <c r="B8" t="n">
-        <v>92527</v>
+        <v>78980</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1289,34 +1289,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4361</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Gåsselliden, Ång</t>
+          <t>Gåsselliden, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>682478</v>
+        <v>682650</v>
       </c>
       <c r="R8" t="n">
-        <v>7101357</v>
+        <v>7101462</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1343,12 +1343,12 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1359,52 +1359,67 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Carl Jansson, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>SCA Skog Naturvärdesinventering</t>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104220705</v>
+        <v>104220714</v>
       </c>
       <c r="B9" t="n">
-        <v>92535</v>
+        <v>78386</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4364</v>
+        <v>6437</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1414,10 +1429,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>682741</v>
+        <v>682901</v>
       </c>
       <c r="R9" t="n">
-        <v>7101486</v>
+        <v>7101266</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1476,10 +1491,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>104230288</v>
+        <v>104220658</v>
       </c>
       <c r="B10" t="n">
-        <v>78980</v>
+        <v>90283</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1487,34 +1502,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>1962</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Gåsselåsen, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>682650</v>
+        <v>682846</v>
       </c>
       <c r="R10" t="n">
-        <v>7101462</v>
+        <v>7101291</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1558,66 +1573,47 @@
       <c r="AG10" t="b">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY10" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>104220714</v>
+        <v>104220705</v>
       </c>
       <c r="B11" t="n">
-        <v>78386</v>
+        <v>92535</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6437</v>
+        <v>4364</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1627,10 +1623,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>682901</v>
+        <v>682741</v>
       </c>
       <c r="R11" t="n">
-        <v>7101266</v>
+        <v>7101486</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1689,10 +1685,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>104220658</v>
+        <v>111835730</v>
       </c>
       <c r="B12" t="n">
-        <v>90283</v>
+        <v>92527</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1700,34 +1696,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1962</v>
+        <v>4361</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Gåsselliden, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>682846</v>
+        <v>682478</v>
       </c>
       <c r="R12" t="n">
-        <v>7101291</v>
+        <v>7101357</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1754,12 +1750,12 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1774,15 +1770,19 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY12" t="inlineStr"/>
+          <t>Ulrika Westling</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
@@ -2009,10 +2009,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>104230293</v>
+        <v>104220661</v>
       </c>
       <c r="B15" t="n">
-        <v>78738</v>
+        <v>90283</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2020,34 +2020,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6446</v>
+        <v>1962</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Gåsselåsen, Ång</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>683027</v>
+        <v>682990</v>
       </c>
       <c r="R15" t="n">
-        <v>7101473</v>
+        <v>7101559</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2091,79 +2091,60 @@
       <c r="AG15" t="b">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY15" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>104220706</v>
+        <v>104230293</v>
       </c>
       <c r="B16" t="n">
-        <v>92535</v>
+        <v>78738</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4364</v>
+        <v>6446</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Gåsselliden, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>683198</v>
+        <v>683027</v>
       </c>
       <c r="R16" t="n">
-        <v>7101382</v>
+        <v>7101473</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2207,47 +2188,66 @@
       <c r="AG16" t="b">
         <v>0</v>
       </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY16" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>104220661</v>
+        <v>104220706</v>
       </c>
       <c r="B17" t="n">
-        <v>90283</v>
+        <v>92535</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1962</v>
+        <v>4364</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2257,10 +2257,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>682990</v>
+        <v>683198</v>
       </c>
       <c r="R17" t="n">
-        <v>7101559</v>
+        <v>7101382</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Beke Regelin, Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse, Peter Andersson</t>
+          <t>Beke Regelin, Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
@@ -2825,10 +2825,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111835738</v>
+        <v>111835732</v>
       </c>
       <c r="B23" t="n">
-        <v>92727</v>
+        <v>92529</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2836,21 +2836,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2079</v>
+        <v>4362</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2860,10 +2860,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>682489</v>
+        <v>682486</v>
       </c>
       <c r="R23" t="n">
-        <v>7101344</v>
+        <v>7101355</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2926,10 +2926,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111835733</v>
+        <v>111835738</v>
       </c>
       <c r="B24" t="n">
-        <v>92551</v>
+        <v>92727</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2937,21 +2937,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2059</v>
+        <v>2079</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -2961,10 +2961,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>682486</v>
+        <v>682489</v>
       </c>
       <c r="R24" t="n">
-        <v>7101355</v>
+        <v>7101344</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3027,10 +3027,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111835732</v>
+        <v>111835733</v>
       </c>
       <c r="B25" t="n">
-        <v>92529</v>
+        <v>92551</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3038,21 +3038,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3555,7 +3555,7 @@
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Beke Regelin, Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse, Peter Andersson</t>
+          <t>Beke Regelin, Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr">
@@ -3566,45 +3566,45 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111835739</v>
+        <v>104230272</v>
       </c>
       <c r="B30" t="n">
-        <v>92727</v>
+        <v>96487</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2079</v>
+        <v>2869</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Gåsselliden, Ång</t>
+          <t>Holmsjöbäcken, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>682686</v>
+        <v>684000</v>
       </c>
       <c r="R30" t="n">
-        <v>7101482</v>
+        <v>7101275</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3631,12 +3631,12 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3651,17 +3651,17 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Carl Jansson, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr">
         <is>
-          <t>SCA Skog Naturvärdesinventering</t>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
         </is>
       </c>
     </row>
@@ -3783,45 +3783,45 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>104230272</v>
+        <v>111835739</v>
       </c>
       <c r="B32" t="n">
-        <v>96487</v>
+        <v>92727</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2869</v>
+        <v>2079</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Holmsjöbäcken, Bjurholm, Ång</t>
+          <t>Gåsselliden, Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>684000</v>
+        <v>682686</v>
       </c>
       <c r="R32" t="n">
-        <v>7101275</v>
+        <v>7101482</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3848,12 +3848,12 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3868,17 +3868,17 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr">
         <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+          <t>SCA Skog Naturvärdesinventering</t>
         </is>
       </c>
     </row>
@@ -4082,48 +4082,51 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>126839046</v>
+        <v>126840196</v>
       </c>
       <c r="B35" t="n">
-        <v>92535</v>
+        <v>78739</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4364</v>
+        <v>228912</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Gåsselmyran, Ång</t>
+          <t>Gåsselmyren, Ång</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>683036</v>
+        <v>683074</v>
       </c>
       <c r="R35" t="n">
-        <v>7101516</v>
+        <v>7101349</v>
       </c>
       <c r="S35" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4161,18 +4164,19 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Vilhelm Kroon</t>
+          <t>Beke Regelin</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Vilhelm Kroon</t>
+          <t>Beke Regelin, Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr">
@@ -4183,51 +4187,48 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>126840196</v>
+        <v>126839046</v>
       </c>
       <c r="B36" t="n">
-        <v>78739</v>
+        <v>92535</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Gåsselmyren, Ång</t>
+          <t>Gåsselmyran, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>683074</v>
+        <v>683036</v>
       </c>
       <c r="R36" t="n">
-        <v>7101349</v>
+        <v>7101516</v>
       </c>
       <c r="S36" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4265,19 +4266,18 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Beke Regelin</t>
+          <t>Vilhelm Kroon</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Beke Regelin, Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse, Peter Andersson</t>
+          <t>Vilhelm Kroon</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr">
@@ -4611,10 +4611,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>104230286</v>
+        <v>104220669</v>
       </c>
       <c r="B40" t="n">
-        <v>90283</v>
+        <v>91265</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4622,34 +4622,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1962</v>
+        <v>5442</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Gåsselåsen, Ång</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>682781</v>
+        <v>682822</v>
       </c>
       <c r="R40" t="n">
-        <v>7101323</v>
+        <v>7101504</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4693,37 +4693,18 @@
       <c r="AG40" t="b">
         <v>0</v>
       </c>
-      <c r="AJ40" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY40" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4824,10 +4805,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>104220669</v>
+        <v>104230286</v>
       </c>
       <c r="B42" t="n">
-        <v>91265</v>
+        <v>90283</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4835,34 +4816,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5442</v>
+        <v>1962</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Gåsselliden, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>682822</v>
+        <v>682781</v>
       </c>
       <c r="R42" t="n">
-        <v>7101504</v>
+        <v>7101323</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -4906,18 +4887,37 @@
       <c r="AG42" t="b">
         <v>0</v>
       </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY42" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -5015,7 +5015,7 @@
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Beke Regelin, Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse, Peter Andersson</t>
+          <t>Beke Regelin, Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr">
@@ -5224,10 +5224,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>126835885</v>
+        <v>126835882</v>
       </c>
       <c r="B46" t="n">
-        <v>78980</v>
+        <v>78647</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5235,21 +5235,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5259,10 +5259,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>683073</v>
+        <v>683072</v>
       </c>
       <c r="R46" t="n">
-        <v>7101302</v>
+        <v>7101304</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5329,17 +5329,17 @@
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>126835882</v>
+        <v>126835885</v>
       </c>
       <c r="B47" t="n">
-        <v>78647</v>
+        <v>78980</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5347,21 +5347,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5371,10 +5371,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>683072</v>
+        <v>683073</v>
       </c>
       <c r="R47" t="n">
-        <v>7101304</v>
+        <v>7101302</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
@@ -5554,32 +5554,32 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>104220711</v>
+        <v>104220670</v>
       </c>
       <c r="B49" t="n">
-        <v>77929</v>
+        <v>92565</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6487</v>
+        <v>232140</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>Niemelä &amp; Kinnunen</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5589,10 +5589,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>684056</v>
+        <v>682846</v>
       </c>
       <c r="R49" t="n">
-        <v>7101315</v>
+        <v>7101291</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5767,32 +5767,32 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>104220670</v>
+        <v>104220711</v>
       </c>
       <c r="B51" t="n">
-        <v>92565</v>
+        <v>77929</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>232140</v>
+        <v>6487</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -5802,10 +5802,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>682846</v>
+        <v>684056</v>
       </c>
       <c r="R51" t="n">
-        <v>7101291</v>
+        <v>7101315</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5963,7 +5963,7 @@
       </c>
       <c r="AX52" t="inlineStr">
         <is>
-          <t>Beke Regelin, Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse, Peter Andersson</t>
+          <t>Beke Regelin, Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
         </is>
       </c>
       <c r="AY52" t="inlineStr">
@@ -6075,32 +6075,32 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>104220701</v>
+        <v>104220663</v>
       </c>
       <c r="B54" t="n">
-        <v>92535</v>
+        <v>90283</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>4364</v>
+        <v>1962</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6110,10 +6110,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>682908</v>
+        <v>683248</v>
       </c>
       <c r="R54" t="n">
-        <v>7101264</v>
+        <v>7101390</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6172,10 +6172,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>104230298</v>
+        <v>104220662</v>
       </c>
       <c r="B55" t="n">
-        <v>92571</v>
+        <v>90283</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6183,34 +6183,34 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5966</v>
+        <v>1962</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Gåsselåsen, Ång</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>683086</v>
+        <v>683114</v>
       </c>
       <c r="R55" t="n">
-        <v>7101478</v>
+        <v>7101481</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6257,48 +6257,44 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY55" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>104220663</v>
+        <v>104220701</v>
       </c>
       <c r="B56" t="n">
-        <v>90283</v>
+        <v>92535</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1962</v>
+        <v>4364</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6308,10 +6304,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>683248</v>
+        <v>682908</v>
       </c>
       <c r="R56" t="n">
-        <v>7101390</v>
+        <v>7101264</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6370,32 +6366,32 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>104220662</v>
+        <v>104220702</v>
       </c>
       <c r="B57" t="n">
-        <v>90283</v>
+        <v>92535</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1962</v>
+        <v>4364</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6405,10 +6401,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>683114</v>
+        <v>682861</v>
       </c>
       <c r="R57" t="n">
-        <v>7101481</v>
+        <v>7101296</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6467,45 +6463,45 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>104220702</v>
+        <v>104230298</v>
       </c>
       <c r="B58" t="n">
-        <v>92535</v>
+        <v>92571</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Gåsselliden, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>682861</v>
+        <v>683086</v>
       </c>
       <c r="R58" t="n">
-        <v>7101296</v>
+        <v>7101478</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6552,15 +6548,19 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY58" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6880,7 +6880,7 @@
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
+          <t>Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Beke Regelin, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Peter Andersson, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
@@ -7085,45 +7085,45 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>104230307</v>
+        <v>104220673</v>
       </c>
       <c r="B64" t="n">
-        <v>92535</v>
+        <v>92551</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4364</v>
+        <v>2059</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Gåsselåsen, Ång</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>683121</v>
+        <v>682597</v>
       </c>
       <c r="R64" t="n">
-        <v>7101391</v>
+        <v>7101488</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7170,26 +7170,22 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY64" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>104220673</v>
+        <v>104230305</v>
       </c>
       <c r="B65" t="n">
-        <v>92551</v>
+        <v>90283</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7197,34 +7193,34 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2059</v>
+        <v>1962</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Gåsselliden, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>682597</v>
+        <v>683176</v>
       </c>
       <c r="R65" t="n">
-        <v>7101488</v>
+        <v>7101420</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7268,47 +7264,66 @@
       <c r="AG65" t="b">
         <v>0</v>
       </c>
+      <c r="AJ65" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK65" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO65" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY65" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY65" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>104230305</v>
+        <v>104230307</v>
       </c>
       <c r="B66" t="n">
-        <v>90283</v>
+        <v>92535</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1962</v>
+        <v>4364</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -7318,10 +7333,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>683176</v>
+        <v>683121</v>
       </c>
       <c r="R66" t="n">
-        <v>7101420</v>
+        <v>7101391</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7364,21 +7379,6 @@
       </c>
       <c r="AG66" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ66" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK66" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO66" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">

--- a/artfynd/Gåsselmyran artfynd.xlsx
+++ b/artfynd/Gåsselmyran artfynd.xlsx
@@ -777,45 +777,45 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104220660</v>
+        <v>104230290</v>
       </c>
       <c r="B3" t="n">
-        <v>90283</v>
+        <v>92535</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1962</v>
+        <v>4364</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Gåsselliden, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>682614</v>
+        <v>682592</v>
       </c>
       <c r="R3" t="n">
-        <v>7101484</v>
+        <v>7101488</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -862,57 +862,61 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY3" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>104230290</v>
+        <v>104220660</v>
       </c>
       <c r="B4" t="n">
-        <v>92535</v>
+        <v>90283</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>1962</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Gåsselåsen, Ång</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>682592</v>
+        <v>682614</v>
       </c>
       <c r="R4" t="n">
-        <v>7101488</v>
+        <v>7101484</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -959,26 +963,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY4" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104220674</v>
+        <v>126840197</v>
       </c>
       <c r="B5" t="n">
-        <v>92551</v>
+        <v>78738</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -986,37 +986,40 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2059</v>
+        <v>6446</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Gåsselmyren, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>682951</v>
+        <v>683074</v>
       </c>
       <c r="R5" t="n">
-        <v>7101573</v>
+        <v>7101349</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1040,12 +1043,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2025-07-22</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1054,28 +1057,33 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Beke Regelin</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr"/>
+          <t>Beke Regelin, Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>126840197</v>
+        <v>104220674</v>
       </c>
       <c r="B6" t="n">
-        <v>78738</v>
+        <v>92551</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1083,40 +1091,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6446</v>
+        <v>2059</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Gåsselmyren, Ång</t>
+          <t>Gåsselåsen, Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>683074</v>
+        <v>682951</v>
       </c>
       <c r="R6" t="n">
-        <v>7101349</v>
+        <v>7101573</v>
       </c>
       <c r="S6" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1140,12 +1145,12 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2025-07-22</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1154,26 +1159,21 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Beke Regelin</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Beke Regelin, Carl Jansson, kristina stenmarck, Jennica Andersson, Isac Enetjärn, Elke Blöhbaum, Lise Mortensen, Lisa Requin, Maria  Persbo , Vilhelm Kroon, Eleonor Johansson, Hedda Bring, Alexandra Astafourova, Elin Kannerby, Lars-Erik Nilsson, Lotta Ihse</t>
-        </is>
-      </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>Forskningsresan i naturvårdens utmarker, Bjurholm 2025</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1278,45 +1278,45 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>104230288</v>
+        <v>104220705</v>
       </c>
       <c r="B8" t="n">
-        <v>78980</v>
+        <v>92535</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Gåsselåsen, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>682650</v>
+        <v>682741</v>
       </c>
       <c r="R8" t="n">
-        <v>7101462</v>
+        <v>7101486</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1360,44 +1360,25 @@
       <c r="AG8" t="b">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY8" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>104220714</v>
+        <v>104220658</v>
       </c>
       <c r="B9" t="n">
-        <v>78386</v>
+        <v>90283</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1405,21 +1386,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6437</v>
+        <v>1962</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1429,10 +1410,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>682901</v>
+        <v>682846</v>
       </c>
       <c r="R9" t="n">
-        <v>7101266</v>
+        <v>7101291</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1491,10 +1472,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>104220658</v>
+        <v>104230288</v>
       </c>
       <c r="B10" t="n">
-        <v>90283</v>
+        <v>78980</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1502,34 +1483,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1962</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Gåsselliden, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>682846</v>
+        <v>682650</v>
       </c>
       <c r="R10" t="n">
-        <v>7101291</v>
+        <v>7101462</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1573,47 +1554,66 @@
       <c r="AG10" t="b">
         <v>0</v>
       </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY10" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>104220705</v>
+        <v>104220714</v>
       </c>
       <c r="B11" t="n">
-        <v>92535</v>
+        <v>78386</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4364</v>
+        <v>6437</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1623,10 +1623,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>682741</v>
+        <v>682901</v>
       </c>
       <c r="R11" t="n">
-        <v>7101486</v>
+        <v>7101266</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -2009,32 +2009,32 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>104220661</v>
+        <v>104220706</v>
       </c>
       <c r="B15" t="n">
-        <v>90283</v>
+        <v>92535</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1962</v>
+        <v>4364</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2044,10 +2044,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>682990</v>
+        <v>683198</v>
       </c>
       <c r="R15" t="n">
-        <v>7101559</v>
+        <v>7101382</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2106,10 +2106,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>104230293</v>
+        <v>104220661</v>
       </c>
       <c r="B16" t="n">
-        <v>78738</v>
+        <v>90283</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2117,34 +2117,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6446</v>
+        <v>1962</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Gåsselåsen, Ång</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>683027</v>
+        <v>682990</v>
       </c>
       <c r="R16" t="n">
-        <v>7101473</v>
+        <v>7101559</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2188,79 +2188,60 @@
       <c r="AG16" t="b">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY16" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>104220706</v>
+        <v>104230293</v>
       </c>
       <c r="B17" t="n">
-        <v>92535</v>
+        <v>78738</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4364</v>
+        <v>6446</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Gåsselliden, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>683198</v>
+        <v>683027</v>
       </c>
       <c r="R17" t="n">
-        <v>7101382</v>
+        <v>7101473</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2304,18 +2285,37 @@
       <c r="AG17" t="b">
         <v>0</v>
       </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY17" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2429,10 +2429,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>104220694</v>
+        <v>104230294</v>
       </c>
       <c r="B19" t="n">
-        <v>91406</v>
+        <v>92519</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2440,34 +2440,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1503</v>
+        <v>6055</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Spadskinn</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Stereopsis vitellina</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(S.Lundell) D.A.Reid</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Gåsselliden, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>683606</v>
+        <v>683077</v>
       </c>
       <c r="R19" t="n">
-        <v>7101466</v>
+        <v>7101489</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2514,44 +2514,48 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY19" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>104220664</v>
+        <v>104220694</v>
       </c>
       <c r="B20" t="n">
-        <v>90283</v>
+        <v>91406</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1962</v>
+        <v>1503</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2561,10 +2565,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>683133</v>
+        <v>683606</v>
       </c>
       <c r="R20" t="n">
-        <v>7101365</v>
+        <v>7101466</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2623,45 +2627,45 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>104230294</v>
+        <v>104220664</v>
       </c>
       <c r="B21" t="n">
-        <v>92519</v>
+        <v>90283</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6055</v>
+        <v>1962</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Spadskinn</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Stereopsis vitellina</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(S.Lundell) D.A.Reid</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Gåsselåsen, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>683077</v>
+        <v>683133</v>
       </c>
       <c r="R21" t="n">
-        <v>7101489</v>
+        <v>7101365</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2708,19 +2712,15 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY21" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2825,10 +2825,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111835732</v>
+        <v>104230302</v>
       </c>
       <c r="B23" t="n">
-        <v>92529</v>
+        <v>90283</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2836,34 +2836,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4362</v>
+        <v>1962</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Gåsselliden, Ång</t>
+          <t>Gåsselliden, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>682486</v>
+        <v>683132</v>
       </c>
       <c r="R23" t="n">
-        <v>7101355</v>
+        <v>7101470</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2890,12 +2890,12 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -2906,30 +2906,45 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Carl Jansson, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr">
         <is>
-          <t>SCA Skog Naturvärdesinventering</t>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111835738</v>
+        <v>104230300</v>
       </c>
       <c r="B24" t="n">
-        <v>92727</v>
+        <v>90283</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2937,34 +2952,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2079</v>
+        <v>1962</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Gåsselliden, Ång</t>
+          <t>Gåsselliden, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>682489</v>
+        <v>683099</v>
       </c>
       <c r="R24" t="n">
-        <v>7101344</v>
+        <v>7101481</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -2991,12 +3006,12 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3007,30 +3022,45 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Carl Jansson, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr">
         <is>
-          <t>SCA Skog Naturvärdesinventering</t>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111835733</v>
+        <v>111835738</v>
       </c>
       <c r="B25" t="n">
-        <v>92551</v>
+        <v>92727</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3038,21 +3068,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2059</v>
+        <v>2079</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3062,10 +3092,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>682486</v>
+        <v>682489</v>
       </c>
       <c r="R25" t="n">
-        <v>7101355</v>
+        <v>7101344</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3128,10 +3158,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>104230300</v>
+        <v>111835733</v>
       </c>
       <c r="B26" t="n">
-        <v>90283</v>
+        <v>92551</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3139,34 +3169,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1962</v>
+        <v>2059</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Gåsselliden, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>683099</v>
+        <v>682486</v>
       </c>
       <c r="R26" t="n">
-        <v>7101481</v>
+        <v>7101355</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3193,12 +3223,12 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3209,45 +3239,30 @@
       </c>
       <c r="AG26" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr">
         <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+          <t>SCA Skog Naturvärdesinventering</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>104230302</v>
+        <v>111835732</v>
       </c>
       <c r="B27" t="n">
-        <v>90283</v>
+        <v>92529</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3255,34 +3270,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1962</v>
+        <v>4362</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Gåsselliden, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>683132</v>
+        <v>682486</v>
       </c>
       <c r="R27" t="n">
-        <v>7101470</v>
+        <v>7101355</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3309,12 +3324,12 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3325,36 +3340,21 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr">
         <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+          <t>SCA Skog Naturvärdesinventering</t>
         </is>
       </c>
     </row>
@@ -3566,45 +3566,45 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>104230272</v>
+        <v>104230295</v>
       </c>
       <c r="B30" t="n">
-        <v>96487</v>
+        <v>90283</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2869</v>
+        <v>1962</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Girg.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Holmsjöbäcken, Bjurholm, Ång</t>
+          <t>Gåsselliden, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>684000</v>
+        <v>683077</v>
       </c>
       <c r="R30" t="n">
-        <v>7101275</v>
+        <v>7101491</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3647,6 +3647,21 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
@@ -3667,10 +3682,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>104230295</v>
+        <v>111835739</v>
       </c>
       <c r="B31" t="n">
-        <v>90283</v>
+        <v>92727</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3678,34 +3693,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1962</v>
+        <v>2079</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Gåsselliden, Ång</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>683077</v>
+        <v>682686</v>
       </c>
       <c r="R31" t="n">
-        <v>7101491</v>
+        <v>7101482</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3732,12 +3747,12 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3748,80 +3763,65 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr">
         <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+          <t>SCA Skog Naturvärdesinventering</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111835739</v>
+        <v>104230272</v>
       </c>
       <c r="B32" t="n">
-        <v>92727</v>
+        <v>96487</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2079</v>
+        <v>2869</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Gåsselliden, Ång</t>
+          <t>Holmsjöbäcken, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>682686</v>
+        <v>684000</v>
       </c>
       <c r="R32" t="n">
-        <v>7101482</v>
+        <v>7101275</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3848,12 +3848,12 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -3868,61 +3868,61 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Carl Jansson, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr">
         <is>
-          <t>SCA Skog Naturvärdesinventering</t>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>104230273</v>
+        <v>104220695</v>
       </c>
       <c r="B33" t="n">
-        <v>92519</v>
+        <v>91263</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6055</v>
+        <v>5432</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Spadskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Stereopsis vitellina</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(S.Lundell) D.A.Reid</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Holmsjöbäcken, Bjurholm, Ång</t>
+          <t>Gåsselåsen, Ång</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>684028</v>
+        <v>683957</v>
       </c>
       <c r="R33" t="n">
-        <v>7101478</v>
+        <v>7101162</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3969,61 +3969,57 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY33" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>104220695</v>
+        <v>104230273</v>
       </c>
       <c r="B34" t="n">
-        <v>91263</v>
+        <v>92519</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5432</v>
+        <v>6055</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spadskinn</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Stereopsis vitellina</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(S.Lundell) D.A.Reid</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Holmsjöbäcken, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>683957</v>
+        <v>684028</v>
       </c>
       <c r="R34" t="n">
-        <v>7101162</v>
+        <v>7101478</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4070,15 +4066,19 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY34" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4409,10 +4409,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>104230297</v>
+        <v>111835740</v>
       </c>
       <c r="B38" t="n">
-        <v>92529</v>
+        <v>78980</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4420,34 +4420,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4362</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Gåsselliden, Ång</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>683086</v>
+        <v>682694</v>
       </c>
       <c r="R38" t="n">
-        <v>7101479</v>
+        <v>7101498</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4474,12 +4474,12 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4494,26 +4494,26 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr">
         <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+          <t>SCA Skog Naturvärdesinventering</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111835740</v>
+        <v>104230297</v>
       </c>
       <c r="B39" t="n">
-        <v>78980</v>
+        <v>92529</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4521,34 +4521,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>4362</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Gåsselliden, Ång</t>
+          <t>Gåsselliden, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>682694</v>
+        <v>683086</v>
       </c>
       <c r="R39" t="n">
-        <v>7101498</v>
+        <v>7101479</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4575,12 +4575,12 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4595,48 +4595,48 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Carl Jansson, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr">
         <is>
-          <t>SCA Skog Naturvärdesinventering</t>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>104220669</v>
+        <v>104220672</v>
       </c>
       <c r="B40" t="n">
-        <v>91265</v>
+        <v>92519</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5442</v>
+        <v>6055</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Spadskinn</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Stereopsis vitellina</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(S.Lundell) D.A.Reid</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4646,10 +4646,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>682822</v>
+        <v>682988</v>
       </c>
       <c r="R40" t="n">
-        <v>7101504</v>
+        <v>7101559</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4708,32 +4708,32 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>104220672</v>
+        <v>104220669</v>
       </c>
       <c r="B41" t="n">
-        <v>92519</v>
+        <v>91265</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6055</v>
+        <v>5442</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Spadskinn</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Stereopsis vitellina</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(S.Lundell) D.A.Reid</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4743,10 +4743,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>682988</v>
+        <v>682822</v>
       </c>
       <c r="R41" t="n">
-        <v>7101559</v>
+        <v>7101504</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>104220657</v>
+        <v>111835737</v>
       </c>
       <c r="B44" t="n">
         <v>79569</v>
@@ -5057,14 +5057,14 @@
       <c r="I44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Gåsselliden, Ång</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>682900</v>
+        <v>682659</v>
       </c>
       <c r="R44" t="n">
-        <v>7101265</v>
+        <v>7101502</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5091,12 +5091,12 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5111,19 +5111,23 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Ulrika Westling</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY44" t="inlineStr"/>
+          <t>Ulrika Westling</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111835737</v>
+        <v>104220657</v>
       </c>
       <c r="B45" t="n">
         <v>79569</v>
@@ -5154,14 +5158,14 @@
       <c r="I45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Gåsselliden, Ång</t>
+          <t>Gåsselåsen, Ång</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>682659</v>
+        <v>682900</v>
       </c>
       <c r="R45" t="n">
-        <v>7101502</v>
+        <v>7101265</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5188,12 +5192,12 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5208,26 +5212,22 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Ulrika Westling</t>
-        </is>
-      </c>
-      <c r="AY45" t="inlineStr">
-        <is>
-          <t>SCA Skog Naturvärdesinventering</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>126835882</v>
+        <v>126835885</v>
       </c>
       <c r="B46" t="n">
-        <v>78647</v>
+        <v>78980</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5235,21 +5235,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5259,10 +5259,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>683072</v>
+        <v>683073</v>
       </c>
       <c r="R46" t="n">
-        <v>7101304</v>
+        <v>7101301</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5336,10 +5336,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>126835885</v>
+        <v>126835882</v>
       </c>
       <c r="B47" t="n">
-        <v>78980</v>
+        <v>78647</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5347,21 +5347,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5371,10 +5371,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>683073</v>
+        <v>683072</v>
       </c>
       <c r="R47" t="n">
-        <v>7101302</v>
+        <v>7101304</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5448,10 +5448,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>55564612</v>
+        <v>104230296</v>
       </c>
       <c r="B48" t="n">
-        <v>91263</v>
+        <v>90283</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5459,34 +5459,34 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5432</v>
+        <v>1962</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Djupbäcken 1, Ång</t>
+          <t>Gåsselliden, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>683999</v>
+        <v>683082</v>
       </c>
       <c r="R48" t="n">
-        <v>7101251</v>
+        <v>7101488</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5513,17 +5513,12 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2015-06-25</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>2015-06-25</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>Lite för liten bäck, ont om bra ved</t>
+          <t>2022-10-20</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5534,52 +5529,67 @@
       </c>
       <c r="AG48" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ48" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK48" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Henrik Weibull</t>
+          <t>Carl Jansson, Isak Vahlström</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr">
         <is>
-          <t>Skapanior Eftersök</t>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>104220670</v>
+        <v>104220711</v>
       </c>
       <c r="B49" t="n">
-        <v>92565</v>
+        <v>77929</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>232140</v>
+        <v>6487</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -5589,10 +5599,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>682846</v>
+        <v>684056</v>
       </c>
       <c r="R49" t="n">
-        <v>7101291</v>
+        <v>7101315</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5651,45 +5661,45 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>104230296</v>
+        <v>104220670</v>
       </c>
       <c r="B50" t="n">
-        <v>90283</v>
+        <v>92565</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1962</v>
+        <v>232140</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>Niemelä &amp; Kinnunen</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Gåsselåsen, Ång</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>683082</v>
+        <v>682846</v>
       </c>
       <c r="R50" t="n">
-        <v>7101488</v>
+        <v>7101291</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5733,44 +5743,25 @@
       <c r="AG50" t="b">
         <v>0</v>
       </c>
-      <c r="AJ50" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK50" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO50" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY50" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>104220711</v>
+        <v>55564612</v>
       </c>
       <c r="B51" t="n">
-        <v>77929</v>
+        <v>91263</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5778,34 +5769,34 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6487</v>
+        <v>5432</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Djupbäcken 1, Ång</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>684056</v>
+        <v>683999</v>
       </c>
       <c r="R51" t="n">
-        <v>7101315</v>
+        <v>7101251</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -5832,12 +5823,17 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2015-06-25</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>2022-10-20</t>
+          <t>2015-06-25</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>Lite för liten bäck, ont om bra ved</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -5852,15 +5848,19 @@
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Henrik Weibull</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY51" t="inlineStr"/>
+          <t>Henrik Weibull</t>
+        </is>
+      </c>
+      <c r="AY51" t="inlineStr">
+        <is>
+          <t>Skapanior Eftersök</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -5974,45 +5974,45 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>104230287</v>
+        <v>104220702</v>
       </c>
       <c r="B53" t="n">
-        <v>92565</v>
+        <v>92535</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>232140</v>
+        <v>4364</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tajgataggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Phellodon secretus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Niemelä &amp; Kinnunen</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Gåsselliden, Bjurholm, Ång</t>
+          <t>Gåsselåsen, Ång</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>682780</v>
+        <v>682861</v>
       </c>
       <c r="R53" t="n">
-        <v>7101325</v>
+        <v>7101296</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6059,48 +6059,44 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Carl Jansson</t>
+          <t>Isak Vahlström</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Carl Jansson, Isak Vahlström</t>
-        </is>
-      </c>
-      <c r="AY53" t="inlineStr">
-        <is>
-          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
-        </is>
-      </c>
+          <t>Isak Vahlström, Carl Jansson</t>
+        </is>
+      </c>
+      <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>104220663</v>
+        <v>104220701</v>
       </c>
       <c r="B54" t="n">
-        <v>90283</v>
+        <v>92535</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1962</v>
+        <v>4364</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6110,10 +6106,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>683248</v>
+        <v>682908</v>
       </c>
       <c r="R54" t="n">
-        <v>7101390</v>
+        <v>7101264</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6269,32 +6265,32 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>104220701</v>
+        <v>104220663</v>
       </c>
       <c r="B56" t="n">
-        <v>92535</v>
+        <v>90283</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>4364</v>
+        <v>1962</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
@@ -6304,10 +6300,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>682908</v>
+        <v>683248</v>
       </c>
       <c r="R56" t="n">
-        <v>7101264</v>
+        <v>7101390</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6366,45 +6362,45 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>104220702</v>
+        <v>104230298</v>
       </c>
       <c r="B57" t="n">
-        <v>92535</v>
+        <v>92571</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>4364</v>
+        <v>5966</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Schaeff.) Quél.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Gåsselåsen, Ång</t>
+          <t>Gåsselliden, Bjurholm, Ång</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>682861</v>
+        <v>683086</v>
       </c>
       <c r="R57" t="n">
-        <v>7101296</v>
+        <v>7101478</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6451,44 +6447,48 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Isak Vahlström</t>
+          <t>Carl Jansson</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Isak Vahlström, Carl Jansson</t>
-        </is>
-      </c>
-      <c r="AY57" t="inlineStr"/>
+          <t>Carl Jansson, Isak Vahlström</t>
+        </is>
+      </c>
+      <c r="AY57" t="inlineStr">
+        <is>
+          <t>Länsstyrelsens naturvärdesinventeringar i Västerbottens län</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>104230298</v>
+        <v>104230287</v>
       </c>
       <c r="B58" t="n">
-        <v>92571</v>
+        <v>92565</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5966</v>
+        <v>232140</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Tajgataggsvamp</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Phellodon secretus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
+          <t>Niemelä &amp; Kinnunen</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -6498,10 +6498,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>683086</v>
+        <v>682780</v>
       </c>
       <c r="R58" t="n">
-        <v>7101478</v>
+        <v>7101325</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
